--- a/Semaine 12/Journal de travail - Winston Meisen.xlsx
+++ b/Semaine 12/Journal de travail - Winston Meisen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Tâche effectuées</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Parte 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 16.12.2018 </t>
+  </si>
+  <si>
+    <t>Partie 2 - Connectiques</t>
   </si>
 </sst>
 </file>
@@ -249,7 +255,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -265,6 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -277,10 +283,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +291,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,10 +603,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:G63"/>
+  <dimension ref="B3:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,416 +616,416 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="5" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="6"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="7" t="s">
         <v>24</v>
       </c>
@@ -1028,50 +1034,50 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="6"/>
+      <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="6"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="7" t="s">
         <v>24</v>
       </c>
@@ -1080,82 +1086,82 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="3"/>
+      <c r="F51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="5" t="s">
+      <c r="E54" s="3"/>
+      <c r="F54" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="6"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="7" t="s">
         <v>24</v>
       </c>
@@ -1164,119 +1170,145 @@
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="5" t="s">
+      <c r="E59" s="3"/>
+      <c r="F59" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="5"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="5"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="3"/>
+      <c r="F62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="6"/>
+      <c r="G62" s="5"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:E63"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
+  <mergeCells count="90">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="F56:G57"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:G52"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:G37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="B5:G5"/>
@@ -1293,36 +1325,46 @@
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:G52"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:G37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F56:G57"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:E63"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="B61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Semaine 12/Journal de travail - Winston Meisen.xlsx
+++ b/Semaine 12/Journal de travail - Winston Meisen.xlsx
@@ -255,6 +255,7 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -270,7 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -283,6 +283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -291,10 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,7 +606,7 @@
   <dimension ref="B3:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,416 +616,416 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="4"/>
+      <c r="F41" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G41" s="5"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="7" t="s">
         <v>24</v>
       </c>
@@ -1034,50 +1034,50 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="5"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="7" t="s">
         <v>24</v>
       </c>
@@ -1086,82 +1086,82 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="5"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="4" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G54" s="5"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="5"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="7" t="s">
         <v>24</v>
       </c>
@@ -1170,122 +1170,169 @@
       <c r="G56" s="10"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="4" t="s">
+      <c r="E59" s="4"/>
+      <c r="F59" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G59" s="5"/>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="4" t="s">
+      <c r="E62" s="4"/>
+      <c r="F62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="5"/>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="5"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="4" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="5"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="5"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="F65:G66"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:E55"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E57"/>
-    <mergeCell ref="F56:G57"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F59:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:G42"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G14"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="D30:E31"/>
+    <mergeCell ref="F30:G31"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B51:C52"/>
     <mergeCell ref="D51:E52"/>
@@ -1302,69 +1349,22 @@
     <mergeCell ref="D38:E39"/>
     <mergeCell ref="F38:G39"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="D30:E31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:G42"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:E49"/>
-    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:E55"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E57"/>
+    <mergeCell ref="F56:G57"/>
     <mergeCell ref="B62:C63"/>
     <mergeCell ref="D62:E63"/>
     <mergeCell ref="F62:G63"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="F59:G60"/>
-    <mergeCell ref="B61:G61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
